--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,73</t>
+          <t>9,94; 22,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,05</t>
+          <t>2,59; 11,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>112,59; 566,17</t>
+          <t>119,08; 573,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,43; 161,6</t>
+          <t>18,44; 158,44</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,8</t>
+          <t>4,88; 12,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,17</t>
+          <t>0,36; 6,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,5</t>
+          <t>10,82; 20,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,95; 319,32</t>
+          <t>61,67; 313,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 204,95</t>
+          <t>4,98; 208,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>64,06; 199,54</t>
+          <t>70,67; 214,64</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,72</t>
+          <t>2,45; 11,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,33</t>
+          <t>3,44; 12,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,32</t>
+          <t>4,98; 15,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 328,93</t>
+          <t>28,3; 325,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>39,32; 353,25</t>
+          <t>44,75; 352,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>32,03; 128,89</t>
+          <t>26,1; 123,51</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,8</t>
+          <t>9,57; 16,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 14,17</t>
+          <t>3,8; 14,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,35</t>
+          <t>4,22; 17,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>119,61; 364,46</t>
+          <t>121,59; 367,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 209,9</t>
+          <t>32,34; 213,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,95; 142,63</t>
+          <t>21,76; 144,89</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 28,04</t>
+          <t>11,23; 27,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 15,12</t>
+          <t>2,49; 14,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,37</t>
+          <t>1,18; 13,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,05; 277,69</t>
+          <t>57,95; 269,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 254,25</t>
+          <t>19,73; 243,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,97; 180,61</t>
+          <t>8,61; 174,87</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 11,32</t>
+          <t>-0,97; 11,46</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,9</t>
+          <t>1,44; 12,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 20,75</t>
+          <t>7,94; 19,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 137,68</t>
+          <t>-9,14; 135,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 251,8</t>
+          <t>8,52; 252,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>38,53; 134,64</t>
+          <t>36,54; 122,0</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,83</t>
+          <t>5,99; 12,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,66</t>
+          <t>1,08; 7,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 21,1</t>
+          <t>1,26; 21,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,23; 266,06</t>
+          <t>76,87; 265,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 123,62</t>
+          <t>10,3; 118,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>18,16; 140,74</t>
+          <t>12,09; 138,37</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,52</t>
+          <t>4,77; 10,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,72</t>
+          <t>1,65; 7,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,92</t>
+          <t>9,06; 15,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,01; 256,12</t>
+          <t>69,57; 251,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,06; 141,61</t>
+          <t>20,93; 138,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>77,74; 195,68</t>
+          <t>76,37; 199,7</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,17; 11,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,78; 7,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,54</t>
+          <t>9,81; 14,45</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>108,12; 182,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>64,34; 127,45</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>72,23; 119,89</t>
+          <t>71,01; 116,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,94; 22,07</t>
+          <t>10,05; 21,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>119,08; 573,82</t>
+          <t>120,38; 623,88</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,88; 12,77</t>
+          <t>5,03; 12,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 6,23</t>
+          <t>0,61; 6,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,67; 313,49</t>
+          <t>59,37; 286,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,98; 208,56</t>
+          <t>9,24; 223,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 11,97</t>
+          <t>2,94; 11,75</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 12,52</t>
+          <t>2,88; 11,89</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -893,12 +893,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,3; 325,68</t>
+          <t>34,0; 337,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>44,75; 352,93</t>
+          <t>36,43; 325,26</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,91</t>
+          <t>9,72; 16,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,8; 14,14</t>
+          <t>3,95; 14,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -993,12 +993,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>121,59; 367,64</t>
+          <t>134,02; 373,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,34; 213,55</t>
+          <t>36,13; 214,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1073,12 +1073,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,23; 27,38</t>
+          <t>11,11; 27,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,49; 14,26</t>
+          <t>1,72; 14,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1093,12 +1093,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>57,95; 269,7</t>
+          <t>56,59; 266,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,73; 243,59</t>
+          <t>14,71; 265,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1173,12 +1173,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 11,46</t>
+          <t>-0,7; 11,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,54</t>
+          <t>1,6; 12,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1193,12 +1193,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 135,81</t>
+          <t>-6,25; 137,22</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,52; 252,39</t>
+          <t>13,41; 255,89</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1273,12 +1273,12 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,99; 12,91</t>
+          <t>6,17; 13,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 7,71</t>
+          <t>0,72; 7,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1293,12 +1293,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>76,87; 265,99</t>
+          <t>79,32; 271,47</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,3; 118,24</t>
+          <t>6,43; 111,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,77; 10,68</t>
+          <t>4,81; 10,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,65; 7,27</t>
+          <t>1,62; 7,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,57; 251,92</t>
+          <t>69,23; 247,08</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,93; 138,75</t>
+          <t>20,94; 136,33</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1473,12 +1473,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,17; 11,19</t>
+          <t>8,08; 11,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,78; 7,86</t>
+          <t>4,8; 7,85</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1493,12 +1493,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>108,12; 182,64</t>
+          <t>109,37; 182,91</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,34; 127,45</t>
+          <t>64,62; 127,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,12 +678,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,05; 21,94</t>
+          <t>9,92; 21,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,78</t>
+          <t>2,73; 12,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>120,38; 623,88</t>
+          <t>112,59; 566,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,44; 158,44</t>
+          <t>19,43; 161,6</t>
         </is>
       </c>
     </row>
@@ -773,17 +773,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,03; 12,59</t>
+          <t>5,01; 12,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,59</t>
+          <t>0,17; 6,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,82; 20,12</t>
+          <t>9,89; 19,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,17 +793,17 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>59,37; 286,71</t>
+          <t>60,95; 319,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,24; 223,6</t>
+          <t>2,19; 204,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>70,67; 214,64</t>
+          <t>64,06; 199,54</t>
         </is>
       </c>
     </row>
@@ -873,17 +873,17 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,94; 11,75</t>
+          <t>1,81; 11,72</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 11,89</t>
+          <t>3,06; 12,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,98; 15,78</t>
+          <t>5,87; 16,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,0; 337,77</t>
+          <t>20,44; 328,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>36,43; 325,26</t>
+          <t>39,32; 353,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>26,1; 123,51</t>
+          <t>32,03; 128,89</t>
         </is>
       </c>
     </row>
@@ -973,17 +973,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,72; 16,76</t>
+          <t>9,46; 16,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 14,2</t>
+          <t>4,2; 14,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,22; 17,17</t>
+          <t>4,47; 16,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,17 +993,17 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>134,02; 373,96</t>
+          <t>119,61; 364,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>36,13; 214,08</t>
+          <t>39,53; 209,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 144,89</t>
+          <t>23,95; 142,63</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 27,69</t>
+          <t>11,68; 28,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 14,16</t>
+          <t>1,46; 15,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 13,76</t>
+          <t>1,26; 13,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1093,17 +1093,17 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,59; 266,29</t>
+          <t>64,05; 277,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>14,71; 265,92</t>
+          <t>5,4; 254,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>8,61; 174,87</t>
+          <t>9,97; 180,61</t>
         </is>
       </c>
     </row>
@@ -1173,17 +1173,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 11,23</t>
+          <t>-0,76; 11,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,6; 12,06</t>
+          <t>1,49; 11,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 19,69</t>
+          <t>8,28; 20,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 137,22</t>
+          <t>-8,83; 137,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,41; 255,89</t>
+          <t>7,35; 251,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>36,54; 122,0</t>
+          <t>38,53; 134,64</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,17; 13,17</t>
+          <t>5,87; 12,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,72; 7,42</t>
+          <t>0,79; 7,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,26; 21,23</t>
+          <t>2,39; 21,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1293,17 +1293,17 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,32; 271,47</t>
+          <t>72,23; 266,06</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,43; 111,17</t>
+          <t>8,28; 123,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>12,09; 138,37</t>
+          <t>18,16; 140,74</t>
         </is>
       </c>
     </row>
@@ -1373,17 +1373,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,81; 10,72</t>
+          <t>4,88; 10,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,47</t>
+          <t>1,73; 7,72</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,06; 15,99</t>
+          <t>9,07; 15,92</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>69,23; 247,08</t>
+          <t>72,01; 256,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,94; 136,33</t>
+          <t>19,06; 141,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>76,37; 199,7</t>
+          <t>77,74; 195,68</t>
         </is>
       </c>
     </row>
@@ -1473,17 +1473,17 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,08; 11,11</t>
+          <t>8,13; 11,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 7,85</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,81; 14,45</t>
+          <t>9,95; 14,54</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1493,17 +1493,17 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>109,37; 182,91</t>
+          <t>111,63; 186,57</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>64,62; 127,72</t>
+          <t>64,34; 125,05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>71,01; 116,5</t>
+          <t>72,23; 119,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,8 +523,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,55 +539,43 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
       <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -604,8 +590,6 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,63</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,63</t>
+          <t>7,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,29</t>
+          <t>392,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>266,9%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>266,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>73,79%</t>
+          <t>79,76%</t>
         </is>
       </c>
     </row>
@@ -668,42 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,89; 20,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,92; 21,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,73</t>
+          <t>2,91; 12,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,73; 12,05</t>
+          <t>143,29; 885,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>112,59; 566,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>112,59; 566,17</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,43; 161,6</t>
+          <t>22,21; 172,32</t>
         </is>
       </c>
     </row>
@@ -720,42 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>15,66</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,3</t>
+          <t>152,75%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,84%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>152,75%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>74,84%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>128,16%</t>
+          <t>135,41%</t>
         </is>
       </c>
     </row>
@@ -768,42 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,01; 12,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,8</t>
+          <t>0,17; 6,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,17</t>
+          <t>10,36; 19,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,89; 19,5</t>
+          <t>60,95; 319,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,19; 204,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,95; 319,32</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>2,19; 204,95</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>64,06; 199,54</t>
+          <t>67,5; 211,75</t>
         </is>
       </c>
     </row>
@@ -820,42 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,45</t>
+          <t>10,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,65</t>
+          <t>125,7%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>125,7%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>144,22%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>68,89%</t>
+          <t>71,92%</t>
         </is>
       </c>
     </row>
@@ -868,42 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,81; 11,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,72</t>
+          <t>3,06; 12,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,33</t>
+          <t>6,11; 16,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,87; 16,32</t>
+          <t>20,44; 328,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,32; 353,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 328,93</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>39,32; 353,25</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>32,03; 128,89</t>
+          <t>34,3; 133,12</t>
         </is>
       </c>
     </row>
@@ -920,42 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,04</t>
+          <t>8,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,77</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,72</t>
+          <t>156,39%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,98%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>222,48%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>97,98%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>71,56%</t>
+          <t>46,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,92; 16,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,46; 16,8</t>
+          <t>4,2; 14,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 14,17</t>
+          <t>-3,5; 13,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 16,35</t>
+          <t>66,85; 310,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,53; 209,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>119,61; 364,46</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>39,53; 209,9</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>23,95; 142,63</t>
+          <t>-16,85; 112,32</t>
         </is>
       </c>
     </row>
@@ -1020,42 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,43</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,43</t>
+          <t>8,45</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,45</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>7,83</t>
+          <t>142,46%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>142,46%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>102,37%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>76,57%</t>
+          <t>61,57%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,68; 28,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 28,04</t>
+          <t>1,46; 15,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 15,12</t>
+          <t>-3,29; 12,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,37</t>
+          <t>64,05; 277,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,4; 254,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>64,05; 277,69</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>5,4; 254,25</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>9,97; 180,61</t>
+          <t>-19,07; 153,9</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,36</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,3</t>
+          <t>14,32</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>48,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>87,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>48,72%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>87,99%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>74,52%</t>
+          <t>76,98%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,76; 11,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 11,32</t>
+          <t>1,49; 11,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,9</t>
+          <t>8,57; 20,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,28; 20,75</t>
+          <t>-8,83; 137,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,35; 251,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 137,68</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 251,8</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>38,53; 134,64</t>
+          <t>40,02; 136,85</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,41</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>9,41</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,42</t>
+          <t>154,47%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>154,47%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>54,78%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>86,41%</t>
+          <t>68,05%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,87; 12,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,83</t>
+          <t>0,79; 7,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,66</t>
+          <t>-4,55; 21,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 21,1</t>
+          <t>72,23; 266,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,28; 123,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>72,23; 266,06</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8,28; 123,62</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>18,16; 140,74</t>
+          <t>-18,92; 139,73</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1164,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>14,6</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>139,38%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>139,38%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>69,04%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>125,49%</t>
+          <t>187,23%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,88; 10,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,52</t>
+          <t>1,73; 7,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,72</t>
+          <t>10,41; 19,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,92</t>
+          <t>72,01; 256,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,06; 141,61</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>72,01; 256,12</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>19,06; 141,61</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>77,74; 195,68</t>
+          <t>94,17; 536,61</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1244,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,65</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>11,99</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,49</t>
+          <t>144,79%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>144,79%</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>94,23%</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>94,38%</t>
+          <t>97,8%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,13; 11,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>4,82; 7,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>7,83; 15,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,95; 14,54</t>
+          <t>111,63; 186,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>64,34; 125,05</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>64,34; 125,05</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>72,23; 119,89</t>
+          <t>64,12; 147,46</t>
         </is>
       </c>
     </row>
@@ -1516,16 +1320,16 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A20:A21"/>
-    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A1:B2"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>

--- a/data/trans_bre/DCD-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Provincia-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,39 +642,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,89; 20,08</t>
+          <t>9,46; 19,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,92; 21,73</t>
+          <t>9,85; 21,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 12,11</t>
+          <t>2,38; 12,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>143,29; 885,33</t>
+          <t>143,3; 823,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>112,59; 566,17</t>
+          <t>111,92; 593,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,21; 172,32</t>
+          <t>16,65; 166,28</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,39 +722,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 12,8</t>
+          <t>4,76; 12,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 6,17</t>
+          <t>0,5; 6,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,36; 19,83</t>
+          <t>10,73; 20,06</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>60,95; 319,32</t>
+          <t>59,45; 288,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 204,95</t>
+          <t>6,83; 206,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>67,5; 211,75</t>
+          <t>72,36; 221,69</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 11,72</t>
+          <t>2,58; 11,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,06; 12,33</t>
+          <t>3,1; 12,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,11; 16,39</t>
+          <t>5,76; 16,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>20,44; 328,93</t>
+          <t>29,48; 317,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,32; 353,25</t>
+          <t>40,72; 337,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>34,3; 133,12</t>
+          <t>33,75; 128,6</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,92; 16,99</t>
+          <t>6,72; 16,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 14,17</t>
+          <t>4,24; 14,08</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,75</t>
+          <t>-3,28; 13,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>66,85; 310,73</t>
+          <t>60,25; 288,25</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,53; 209,9</t>
+          <t>37,51; 220,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,85; 112,32</t>
+          <t>-15,1; 110,61</t>
         </is>
       </c>
     </row>
@@ -962,39 +962,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,68; 28,04</t>
+          <t>11,17; 27,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,46; 15,12</t>
+          <t>2,08; 14,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 12,19</t>
+          <t>-2,51; 12,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>64,05; 277,69</t>
+          <t>60,91; 273,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 254,25</t>
+          <t>14,59; 258,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-19,07; 153,9</t>
+          <t>-15,51; 151,81</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 11,32</t>
+          <t>-0,26; 10,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,49; 11,9</t>
+          <t>0,9; 11,43</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>8,57; 20,98</t>
+          <t>7,86; 20,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,83; 137,68</t>
+          <t>-2,28; 132,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,35; 251,8</t>
+          <t>7,93; 243,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>40,02; 136,85</t>
+          <t>34,79; 125,74</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,87; 12,83</t>
+          <t>6,15; 13,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,66</t>
+          <t>1,2; 8,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 21,11</t>
+          <t>-3,67; 20,83</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>72,23; 266,06</t>
+          <t>80,35; 272,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,28; 123,62</t>
+          <t>11,37; 135,99</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-18,92; 139,73</t>
+          <t>-18,54; 133,74</t>
         </is>
       </c>
     </row>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,88; 10,52</t>
+          <t>4,32; 10,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,72</t>
+          <t>1,68; 7,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>10,41; 19,99</t>
+          <t>10,44; 20,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>72,01; 256,12</t>
+          <t>65,17; 239,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>19,06; 141,61</t>
+          <t>20,33; 143,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>94,17; 536,61</t>
+          <t>91,63; 509,56</t>
         </is>
       </c>
     </row>
@@ -1282,32 +1282,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,13; 11,14</t>
+          <t>8,14; 11,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,72</t>
+          <t>4,87; 7,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,83; 15,05</t>
+          <t>7,5; 14,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>111,63; 186,57</t>
+          <t>111,66; 184,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>64,34; 125,05</t>
+          <t>67,08; 129,65</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>64,12; 147,46</t>
+          <t>62,93; 144,25</t>
         </is>
       </c>
     </row>
